--- a/DataSet/LoanIQ_DataSet/EU_Entity/EVG_PTYLIQ04_EU_BaselineNonAgentSyndication.xlsx
+++ b/DataSet/LoanIQ_DataSet/EU_Entity/EVG_PTYLIQ04_EU_BaselineNonAgentSyndication.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="14" activeTab="17" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1770" yWindow="1530" windowWidth="21600" windowHeight="12885" tabRatio="600" firstSheet="7" activeTab="8" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CRED01_DealSetup" sheetId="1" state="visible" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CRED09_AdminFee" sheetId="16" state="visible" r:id="rId16"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ORIG03_Customer1" sheetId="17" state="visible" r:id="rId17"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ORIG03_Customer" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV01_LoanDrawdown" sheetId="19" state="visible" r:id="rId19"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -36,7 +37,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yy"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -116,6 +117,13 @@
       <sz val="10"/>
       <u val="single"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color indexed="9"/>
+      <sz val="11"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -167,7 +175,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -223,12 +231,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -344,6 +367,14 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1654,7 +1685,7 @@
       </c>
       <c r="O2" s="60" t="inlineStr">
         <is>
-          <t>BORROWER1111</t>
+          <t>CBANLDCUST0001 1914811</t>
         </is>
       </c>
       <c r="P2" s="44" t="inlineStr">
@@ -2868,7 +2899,7 @@
       </c>
       <c r="I2" s="59" t="inlineStr">
         <is>
-          <t>BORROWER1111</t>
+          <t>CBANLDCUST0001 1914811</t>
         </is>
       </c>
       <c r="J2" s="59" t="inlineStr">
@@ -3048,6 +3079,11 @@
       <c r="F2" s="59" t="inlineStr">
         <is>
           <t>Upfront Fee Payment Transaction</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>CBANLDCUST0001 1914811</t>
         </is>
       </c>
       <c r="H2" s="59" t="inlineStr">
@@ -3895,7 +3931,7 @@
       </c>
       <c r="D2" s="59" t="inlineStr">
         <is>
-          <t>BORROWER1111</t>
+          <t>CBANLDCUST0001 1914811</t>
         </is>
       </c>
       <c r="E2" s="59" t="inlineStr">
@@ -4651,7 +4687,7 @@
       <c r="N2" s="61" t="n"/>
       <c r="O2" s="59" t="inlineStr">
         <is>
-          <t>BORROWER1111</t>
+          <t>CBANLDCUST0001 1914811</t>
         </is>
       </c>
       <c r="P2" s="53" t="inlineStr">
@@ -6212,7 +6248,7 @@
   </sheetPr>
   <dimension ref="A1:EO2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
@@ -7096,12 +7132,12 @@
       </c>
       <c r="M2" s="59" t="inlineStr">
         <is>
-          <t>SHORTNME1144 1910651</t>
+          <t>CBANLDCUST0001 1914811</t>
         </is>
       </c>
       <c r="N2" s="59" t="inlineStr">
         <is>
-          <t>CBANLDCUST0001 1910651</t>
+          <t>CBANLDCUST0001 1914811</t>
         </is>
       </c>
       <c r="O2" s="59" t="n">
@@ -7755,6 +7791,530 @@
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="BT2" r:id="rId1"/>
   </hyperlinks>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
+  <pageSetup orientation="portrait" paperSize="9" useFirstPageNumber="1" pageOrder="overThenDown" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AS5"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="6.140625" customWidth="1" style="19" min="1" max="1"/>
+    <col width="39.28515625" customWidth="1" style="19" min="2" max="2"/>
+    <col width="18.7109375" customWidth="1" style="19" min="3" max="3"/>
+    <col width="25.5703125" bestFit="1" customWidth="1" style="19" min="4" max="4"/>
+    <col width="16.28515625" customWidth="1" style="19" min="5" max="5"/>
+    <col width="21.140625" customWidth="1" style="19" min="6" max="6"/>
+    <col width="14.5703125" customWidth="1" style="19" min="7" max="7"/>
+    <col width="26.7109375" customWidth="1" style="19" min="8" max="8"/>
+    <col width="33.28515625" customWidth="1" style="19" min="9" max="9"/>
+    <col width="21.7109375" customWidth="1" style="19" min="10" max="11"/>
+    <col width="17.42578125" customWidth="1" style="19" min="12" max="12"/>
+    <col width="21.140625" customWidth="1" style="19" min="13" max="13"/>
+    <col width="10.42578125" customWidth="1" style="19" min="14" max="14"/>
+    <col width="18.5703125" customWidth="1" style="19" min="15" max="15"/>
+    <col width="14.140625" customWidth="1" style="19" min="16" max="16"/>
+    <col width="23.28515625" customWidth="1" style="19" min="17" max="17"/>
+    <col width="17.28515625" customWidth="1" style="19" min="18" max="18"/>
+    <col width="18.42578125" customWidth="1" style="19" min="19" max="19"/>
+    <col width="18.28515625" customWidth="1" style="19" min="20" max="20"/>
+    <col width="24.140625" customWidth="1" style="19" min="21" max="21"/>
+    <col width="23" customWidth="1" style="19" min="22" max="22"/>
+    <col width="20.5703125" customWidth="1" style="19" min="23" max="23"/>
+    <col width="18.7109375" customWidth="1" style="19" min="24" max="24"/>
+    <col width="30.28515625" customWidth="1" style="19" min="25" max="25"/>
+    <col width="27.7109375" customWidth="1" style="19" min="26" max="26"/>
+    <col width="22.85546875" customWidth="1" style="19" min="27" max="27"/>
+    <col width="26.85546875" customWidth="1" style="19" min="28" max="28"/>
+    <col width="21" customWidth="1" style="19" min="29" max="29"/>
+    <col width="28" customWidth="1" style="19" min="30" max="30"/>
+    <col width="21.42578125" customWidth="1" style="19" min="31" max="31"/>
+    <col width="32.28515625" customWidth="1" style="19" min="32" max="32"/>
+    <col width="36.5703125" customWidth="1" style="19" min="33" max="33"/>
+    <col width="16.5703125" customWidth="1" style="19" min="34" max="34"/>
+    <col width="24.28515625" customWidth="1" style="19" min="35" max="35"/>
+    <col width="15.7109375" customWidth="1" style="19" min="36" max="36"/>
+    <col width="22.140625" customWidth="1" style="19" min="37" max="37"/>
+    <col width="18.140625" customWidth="1" style="19" min="38" max="38"/>
+    <col width="14.85546875" customWidth="1" style="19" min="39" max="39"/>
+    <col width="22.85546875" customWidth="1" style="19" min="40" max="40"/>
+    <col width="20.5703125" customWidth="1" style="19" min="41" max="42"/>
+    <col width="40.85546875" customWidth="1" style="60" min="43" max="43"/>
+    <col width="14.7109375" customWidth="1" style="60" min="44" max="44"/>
+    <col width="9.140625" customWidth="1" style="77" min="45" max="45"/>
+    <col width="9.140625" customWidth="1" style="77" min="46" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" s="86">
+      <c r="A1" s="81" t="inlineStr">
+        <is>
+          <t>rowid</t>
+        </is>
+      </c>
+      <c r="B1" s="82" t="inlineStr">
+        <is>
+          <t>Test_Case</t>
+        </is>
+      </c>
+      <c r="C1" s="81" t="inlineStr">
+        <is>
+          <t>Contact_Email</t>
+        </is>
+      </c>
+      <c r="D1" s="83" t="inlineStr">
+        <is>
+          <t>Deal_Name</t>
+        </is>
+      </c>
+      <c r="E1" s="81" t="inlineStr">
+        <is>
+          <t>Facility_Currency</t>
+        </is>
+      </c>
+      <c r="F1" s="83" t="inlineStr">
+        <is>
+          <t>Facility_Name</t>
+        </is>
+      </c>
+      <c r="G1" s="81" t="inlineStr">
+        <is>
+          <t>Facility_Spread</t>
+        </is>
+      </c>
+      <c r="H1" s="81" t="inlineStr">
+        <is>
+          <t>Facility_CurrentAvailToDraw</t>
+        </is>
+      </c>
+      <c r="I1" s="81" t="inlineStr">
+        <is>
+          <t>Facility_CurrentGlobalOutstandings</t>
+        </is>
+      </c>
+      <c r="J1" s="83" t="inlineStr">
+        <is>
+          <t>Borrower_ShortName</t>
+        </is>
+      </c>
+      <c r="K1" s="83" t="inlineStr">
+        <is>
+          <t>Borrower_LegalName</t>
+        </is>
+      </c>
+      <c r="L1" s="81" t="inlineStr">
+        <is>
+          <t>Outstanding_Type</t>
+        </is>
+      </c>
+      <c r="M1" s="83" t="inlineStr">
+        <is>
+          <t>Loan_FacilityName</t>
+        </is>
+      </c>
+      <c r="N1" s="83" t="inlineStr">
+        <is>
+          <t>Loan_Alias</t>
+        </is>
+      </c>
+      <c r="O1" s="81" t="inlineStr">
+        <is>
+          <t>Loan_PricingOption</t>
+        </is>
+      </c>
+      <c r="P1" s="81" t="inlineStr">
+        <is>
+          <t>Loan_Currency</t>
+        </is>
+      </c>
+      <c r="Q1" s="81" t="inlineStr">
+        <is>
+          <t>Loan_RequestedAmount</t>
+        </is>
+      </c>
+      <c r="R1" s="81" t="inlineStr">
+        <is>
+          <t>HostBankSharePct</t>
+        </is>
+      </c>
+      <c r="S1" s="83" t="inlineStr">
+        <is>
+          <t>Loan_EffectiveDate</t>
+        </is>
+      </c>
+      <c r="T1" s="83" t="inlineStr">
+        <is>
+          <t>Loan_MaturityDate</t>
+        </is>
+      </c>
+      <c r="U1" s="81" t="inlineStr">
+        <is>
+          <t>Loan_RepricingFrequency</t>
+        </is>
+      </c>
+      <c r="V1" s="81" t="inlineStr">
+        <is>
+          <t>Loan_IntCycleFrequency</t>
+        </is>
+      </c>
+      <c r="W1" s="81" t="inlineStr">
+        <is>
+          <t>Loan_Accrue</t>
+        </is>
+      </c>
+      <c r="X1" s="81" t="inlineStr">
+        <is>
+          <t>Borrower_BaseRate</t>
+        </is>
+      </c>
+      <c r="Y1" s="81" t="inlineStr">
+        <is>
+          <t>Repayment_ScheduleFrequency</t>
+        </is>
+      </c>
+      <c r="Z1" s="81" t="inlineStr">
+        <is>
+          <t>Repayment_NumberOfCycles</t>
+        </is>
+      </c>
+      <c r="AA1" s="83" t="inlineStr">
+        <is>
+          <t>Repayment_TriggerDate</t>
+        </is>
+      </c>
+      <c r="AB1" s="81" t="inlineStr">
+        <is>
+          <t>Repayment_NonBusDayRule</t>
+        </is>
+      </c>
+      <c r="AC1" s="84" t="inlineStr">
+        <is>
+          <t>WIP_TransactionType</t>
+        </is>
+      </c>
+      <c r="AD1" s="84" t="inlineStr">
+        <is>
+          <t>WIP_AwaitingApprovalStatus</t>
+        </is>
+      </c>
+      <c r="AE1" s="84" t="inlineStr">
+        <is>
+          <t>WIP_OutstandingType</t>
+        </is>
+      </c>
+      <c r="AF1" s="84" t="inlineStr">
+        <is>
+          <t>WIP_AwaitingRateApprovalStatus</t>
+        </is>
+      </c>
+      <c r="AG1" s="84" t="inlineStr">
+        <is>
+          <t>WIP_AwaitingReleaseCashflowsStatus</t>
+        </is>
+      </c>
+      <c r="AH1" s="84" t="inlineStr">
+        <is>
+          <t>Borrower_Profile</t>
+        </is>
+      </c>
+      <c r="AI1" s="85" t="inlineStr">
+        <is>
+          <t>LIQCustomer_ShortName</t>
+        </is>
+      </c>
+      <c r="AJ1" s="84" t="inlineStr">
+        <is>
+          <t>LIQCustomer_ID</t>
+        </is>
+      </c>
+      <c r="AK1" s="84" t="inlineStr">
+        <is>
+          <t>Remittance_Instruction</t>
+        </is>
+      </c>
+      <c r="AL1" s="84" t="inlineStr">
+        <is>
+          <t>Remittance_Status</t>
+        </is>
+      </c>
+      <c r="AM1" s="84" t="inlineStr">
+        <is>
+          <t>Loan_Currency</t>
+        </is>
+      </c>
+      <c r="AN1" s="85" t="inlineStr">
+        <is>
+          <t>Remittance_Description</t>
+        </is>
+      </c>
+      <c r="AO1" s="84" t="inlineStr">
+        <is>
+          <t>HostBank_GLAccount</t>
+        </is>
+      </c>
+      <c r="AP1" s="84" t="inlineStr">
+        <is>
+          <t>Borrower_GLAccount</t>
+        </is>
+      </c>
+      <c r="AQ1" s="84" t="inlineStr">
+        <is>
+          <t>Host_Bank</t>
+        </is>
+      </c>
+      <c r="AR1" s="84" t="inlineStr">
+        <is>
+          <t>NoticeStatus</t>
+        </is>
+      </c>
+      <c r="AS1" s="84" t="inlineStr">
+        <is>
+          <t>BranchCode</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" customFormat="1" s="60">
+      <c r="A2" s="60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" s="60" t="inlineStr">
+        <is>
+          <t>EVG_PTYLIQ01 Scenario1 Baseline Bilateral</t>
+        </is>
+      </c>
+      <c r="C2" s="87" t="inlineStr">
+        <is>
+          <t>john.blogg@abc.com</t>
+        </is>
+      </c>
+      <c r="D2" s="60" t="inlineStr">
+        <is>
+          <t>BNS1_15072020164626ZZY</t>
+        </is>
+      </c>
+      <c r="E2" s="19" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="F2" s="60" t="inlineStr">
+        <is>
+          <t>S115072020165407YPY</t>
+        </is>
+      </c>
+      <c r="G2" s="19" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" s="60" t="inlineStr">
+        <is>
+          <t>100,000.00</t>
+        </is>
+      </c>
+      <c r="I2" s="60" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J2" s="60" t="inlineStr">
+        <is>
+          <t>CBANLDCUST0001 1914811</t>
+        </is>
+      </c>
+      <c r="K2" s="60" t="inlineStr">
+        <is>
+          <t>CUSTSHORT43149</t>
+        </is>
+      </c>
+      <c r="L2" s="19" t="inlineStr">
+        <is>
+          <t>Loan</t>
+        </is>
+      </c>
+      <c r="M2" s="60" t="inlineStr">
+        <is>
+          <t>S115072020165407YPY</t>
+        </is>
+      </c>
+      <c r="N2" s="69" t="inlineStr">
+        <is>
+          <t>60000035</t>
+        </is>
+      </c>
+      <c r="O2" s="19" t="inlineStr">
+        <is>
+          <t>Fixed Rate Option</t>
+        </is>
+      </c>
+      <c r="P2" s="19" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="Q2" s="19" t="inlineStr">
+        <is>
+          <t>10000.00</t>
+        </is>
+      </c>
+      <c r="R2" s="19" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="S2" s="60" t="inlineStr">
+        <is>
+          <t>27-May-2020</t>
+        </is>
+      </c>
+      <c r="T2" s="60" t="inlineStr">
+        <is>
+          <t>28-Jun-2021</t>
+        </is>
+      </c>
+      <c r="U2" s="19" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="V2" s="19" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="W2" s="19" t="inlineStr">
+        <is>
+          <t>to the actual due date</t>
+        </is>
+      </c>
+      <c r="X2" s="19" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="Y2" s="19" t="inlineStr">
+        <is>
+          <t>Weeks</t>
+        </is>
+      </c>
+      <c r="Z2" s="19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA2" s="60" t="inlineStr">
+        <is>
+          <t>27-May-2020</t>
+        </is>
+      </c>
+      <c r="AB2" s="19" t="inlineStr">
+        <is>
+          <t>Next Business Day</t>
+        </is>
+      </c>
+      <c r="AC2" s="60" t="inlineStr">
+        <is>
+          <t>Outstandings</t>
+        </is>
+      </c>
+      <c r="AD2" s="60" t="inlineStr">
+        <is>
+          <t>Awaiting Approval</t>
+        </is>
+      </c>
+      <c r="AE2" s="60" t="inlineStr">
+        <is>
+          <t>Loan Initial Drawdown</t>
+        </is>
+      </c>
+      <c r="AF2" s="19" t="inlineStr">
+        <is>
+          <t>Awaiting Rate Approval</t>
+        </is>
+      </c>
+      <c r="AG2" s="19" t="inlineStr">
+        <is>
+          <t>Awaiting Release Cashflows</t>
+        </is>
+      </c>
+      <c r="AH2" s="19" t="inlineStr">
+        <is>
+          <t>Borrower</t>
+        </is>
+      </c>
+      <c r="AI2" s="60" t="inlineStr">
+        <is>
+          <t>CUSTSHORT43149</t>
+        </is>
+      </c>
+      <c r="AJ2" s="60" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="AK2" s="60" t="inlineStr">
+        <is>
+          <t>DDA</t>
+        </is>
+      </c>
+      <c r="AL2" s="60" t="inlineStr">
+        <is>
+          <t>DOIT</t>
+        </is>
+      </c>
+      <c r="AM2" s="60" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="AN2" s="60" t="inlineStr">
+        <is>
+          <t>DDAAUD1-4634</t>
+        </is>
+      </c>
+      <c r="AO2" s="74" t="inlineStr">
+        <is>
+          <t>12001001836</t>
+        </is>
+      </c>
+      <c r="AP2" s="74" t="inlineStr">
+        <is>
+          <t>18567000000</t>
+        </is>
+      </c>
+      <c r="AQ2" s="60" t="inlineStr">
+        <is>
+          <t>CB001/Hold for Investment - Australia/BP_CML</t>
+        </is>
+      </c>
+      <c r="AR2" s="60" t="inlineStr">
+        <is>
+          <t>Awaiting release</t>
+        </is>
+      </c>
+      <c r="AS2" s="60" t="inlineStr">
+        <is>
+          <t>CB001</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="AQ5" s="88" t="n"/>
+    </row>
+  </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
   <pageSetup orientation="portrait" paperSize="9" useFirstPageNumber="1" pageOrder="overThenDown" horizontalDpi="300" verticalDpi="300"/>
@@ -8198,7 +8758,7 @@
       </c>
       <c r="AI2" s="60" t="inlineStr">
         <is>
-          <t>BORROWER1111</t>
+          <t>CBANLDCUST0001 1914811</t>
         </is>
       </c>
       <c r="AJ2" s="16" t="inlineStr">
@@ -9543,8 +10103,8 @@
   <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G2" sqref="G2"/>
+      <pane xSplit="2" topLeftCell="AA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -9877,7 +10437,7 @@
       </c>
       <c r="L2" s="5" t="inlineStr">
         <is>
-          <t>Netherlands Holland</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="M2" s="6" t="inlineStr">
@@ -9887,7 +10447,7 @@
       </c>
       <c r="N2" s="5" t="inlineStr">
         <is>
-          <t>Netherlands Holland</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="O2" s="6" t="inlineStr">
@@ -9925,7 +10485,7 @@
       </c>
       <c r="V2" s="5" t="inlineStr">
         <is>
-          <t>Netherlands Holland</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="W2" s="7" t="n">
@@ -9958,7 +10518,7 @@
       </c>
       <c r="AC2" s="8" t="inlineStr">
         <is>
-          <t>Noord-Holland</t>
+          <t>Queensland</t>
         </is>
       </c>
       <c r="AD2" s="5" t="inlineStr">
@@ -9984,6 +10544,11 @@
       <c r="AH2" t="inlineStr">
         <is>
           <t>EU-EU</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>CBANLDCUST0001 1914811</t>
         </is>
       </c>
     </row>
@@ -10768,8 +11333,8 @@
   </sheetPr>
   <dimension ref="A1:AO4"/>
   <sheetViews>
-    <sheetView topLeftCell="AE1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AM2" sqref="AM2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -11034,7 +11599,7 @@
       </c>
       <c r="E2" s="59" t="inlineStr">
         <is>
-          <t>BORROWER1111</t>
+          <t>CBANLDCUST0001 1914811</t>
         </is>
       </c>
       <c r="F2" s="65" t="inlineStr">
@@ -11206,6 +11771,7 @@
         </is>
       </c>
     </row>
+    <row r="3"/>
     <row r="4">
       <c r="AH4" s="19" t="n"/>
       <c r="AI4" s="19" t="n"/>

--- a/DataSet/LoanIQ_DataSet/EU_Entity/EVG_PTYLIQ04_EU_BaselineNonAgentSyndication.xlsx
+++ b/DataSet/LoanIQ_DataSet/EU_Entity/EVG_PTYLIQ04_EU_BaselineNonAgentSyndication.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\LoanIQ_DataSet\EU_Entity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2464C5B1-233B-4B21-8B81-D57A306987B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35B7202-DD54-4668-9D2C-C420F2B0E1C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2715" windowWidth="21600" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="12885" firstSheet="15" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SERV01_LoanDrawdown" sheetId="19" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1799" uniqueCount="1038">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="1038">
   <si>
     <t>rowid</t>
   </si>
@@ -3828,10 +3828,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AS5"/>
+  <dimension ref="A1:AT5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView topLeftCell="AK1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AT1" sqref="AT1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3882,7 +3882,7 @@
     <col min="47" max="16384" width="9.140625" style="81"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="87" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" s="87" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
@@ -4018,8 +4018,11 @@
       <c r="AS1" s="85" t="s">
         <v>1020</v>
       </c>
+      <c r="AT1" s="14" t="s">
+        <v>160</v>
+      </c>
     </row>
-    <row r="2" spans="1:45" s="60" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="60" t="s">
         <v>161</v>
       </c>
@@ -4155,8 +4158,11 @@
       <c r="AS2" s="60" t="s">
         <v>1037</v>
       </c>
+      <c r="AT2" s="81" t="s">
+        <v>240</v>
+      </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="AQ5" s="89"/>
     </row>
   </sheetData>
@@ -4173,8 +4179,8 @@
   </sheetPr>
   <dimension ref="A1:AO4"/>
   <sheetViews>
-    <sheetView topLeftCell="AE1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AM2" sqref="AM2"/>
+    <sheetView topLeftCell="AG1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AN1" sqref="AN1:AN2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4337,6 +4343,9 @@
       <c r="AM1" s="42" t="s">
         <v>368</v>
       </c>
+      <c r="AN1" s="14" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="2" spans="1:41" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
@@ -4455,6 +4464,9 @@
       </c>
       <c r="AM2" s="59" t="s">
         <v>568</v>
+      </c>
+      <c r="AN2" s="81" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">
@@ -4479,10 +4491,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AR15"/>
+  <dimension ref="A1:AS15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="AK1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AS1" sqref="AS1:AS2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4531,7 +4543,7 @@
     <col min="44" max="44" width="16" style="81" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="21" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" s="21" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -4664,8 +4676,11 @@
       <c r="AR1" s="21" t="s">
         <v>597</v>
       </c>
+      <c r="AS1" s="14" t="s">
+        <v>160</v>
+      </c>
     </row>
-    <row r="2" spans="1:44" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>161</v>
       </c>
@@ -4793,8 +4808,11 @@
       <c r="AR2" s="22" t="s">
         <v>235</v>
       </c>
+      <c r="AS2" s="81" t="s">
+        <v>240</v>
+      </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
       <c r="C9" s="59"/>
       <c r="D9" s="61"/>
       <c r="E9" s="59"/>
@@ -4805,15 +4823,15 @@
       <c r="J9" s="61"/>
       <c r="K9" s="59"/>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
       <c r="O13" s="27"/>
       <c r="Q13" s="27"/>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
       <c r="N14" s="27"/>
       <c r="O14" s="27"/>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
       <c r="N15" s="27"/>
       <c r="O15" s="27"/>
     </row>
@@ -4829,10 +4847,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4855,7 +4873,7 @@
     <col min="16" max="16" width="16.85546875" style="59" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="14" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="14" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -4904,8 +4922,11 @@
       <c r="P1" s="13" t="s">
         <v>622</v>
       </c>
+      <c r="Q1" s="14" t="s">
+        <v>160</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" s="59" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" s="59" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="59" t="s">
         <v>161</v>
       </c>
@@ -4953,6 +4974,9 @@
       </c>
       <c r="P2" s="59" t="s">
         <v>630</v>
+      </c>
+      <c r="Q2" s="81" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -4969,8 +4993,8 @@
   </sheetPr>
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5037,6 +5061,9 @@
       <c r="O1" s="11" t="s">
         <v>633</v>
       </c>
+      <c r="P1" s="14" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="2" spans="1:18" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
@@ -5080,6 +5107,9 @@
       </c>
       <c r="O2" s="59" t="s">
         <v>635</v>
+      </c>
+      <c r="P2" s="81" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -5101,7 +5131,7 @@
   <dimension ref="A1:AX2"/>
   <sheetViews>
     <sheetView topLeftCell="AQ1" zoomScale="101" zoomScaleNormal="101" workbookViewId="0">
-      <selection activeCell="AX2" sqref="AX2"/>
+      <selection activeCell="AX1" sqref="AX1:AX2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5158,7 +5188,7 @@
     <col min="50" max="50" width="38.28515625" style="81" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="14" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:50" s="14" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -5306,8 +5336,11 @@
       <c r="AW1" s="14" t="s">
         <v>366</v>
       </c>
+      <c r="AX1" s="14" t="s">
+        <v>160</v>
+      </c>
     </row>
-    <row r="2" spans="1:49" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
         <v>161</v>
       </c>
@@ -5454,6 +5487,9 @@
       </c>
       <c r="AW2" s="59" t="s">
         <v>689</v>
+      </c>
+      <c r="AX2" s="81" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -5471,8 +5507,8 @@
   <dimension ref="A1:DY2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F4" sqref="F4"/>
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5617,6 +5653,9 @@
       <c r="G1" s="14" t="s">
         <v>692</v>
       </c>
+      <c r="H1" s="14" t="s">
+        <v>160</v>
+      </c>
       <c r="BZ1" s="15"/>
       <c r="CA1" s="15"/>
       <c r="CB1" s="15"/>
@@ -5692,6 +5731,9 @@
       <c r="G2" s="59" t="s">
         <v>215</v>
       </c>
+      <c r="H2" s="81" t="s">
+        <v>240</v>
+      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -5705,10 +5747,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BF2"/>
+  <dimension ref="A1:BG2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="BE1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BG1" sqref="BG1:BG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5770,7 +5812,7 @@
     <col min="58" max="58" width="34.28515625" style="59" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" s="47" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:59" s="47" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -5945,8 +5987,11 @@
       <c r="BF1" s="50" t="s">
         <v>673</v>
       </c>
+      <c r="BG1" s="14" t="s">
+        <v>160</v>
+      </c>
     </row>
-    <row r="2" spans="1:58" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:59" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
         <v>161</v>
       </c>
@@ -6043,6 +6088,9 @@
       </c>
       <c r="BF2" s="59" t="s">
         <v>562</v>
+      </c>
+      <c r="BG2" s="81" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -6060,8 +6108,8 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H2" sqref="H2"/>
+      <pane xSplit="2" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T1" sqref="T1:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6155,7 +6203,9 @@
       <c r="S1" s="13" t="s">
         <v>622</v>
       </c>
-      <c r="T1" s="15"/>
+      <c r="T1" s="14" t="s">
+        <v>160</v>
+      </c>
       <c r="U1" s="15"/>
       <c r="V1" s="15"/>
       <c r="W1" s="15"/>
@@ -6221,6 +6271,9 @@
       <c r="S2" s="59" t="s">
         <v>630</v>
       </c>
+      <c r="T2" s="81" t="s">
+        <v>240</v>
+      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -6234,10 +6287,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:EL2"/>
+  <dimension ref="A1:EM2"/>
   <sheetViews>
-    <sheetView topLeftCell="CM1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="EG1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="EM1" sqref="EM1:EM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6326,7 +6379,7 @@
     <col min="96" max="96" width="34.85546875" style="60" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:142" s="33" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:143" s="33" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -6753,8 +6806,11 @@
       <c r="EL1" s="11" t="s">
         <v>904</v>
       </c>
+      <c r="EM1" s="14" t="s">
+        <v>160</v>
+      </c>
     </row>
-    <row r="2" spans="1:142" s="60" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:143" s="60" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="60" t="s">
         <v>161</v>
       </c>
@@ -7176,6 +7232,9 @@
       </c>
       <c r="EL2" s="22" t="s">
         <v>1001</v>
+      </c>
+      <c r="EM2" s="81" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -7192,8 +7251,8 @@
   </sheetPr>
   <dimension ref="A1:EO2"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="EF1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="ES13" sqref="ES13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8172,8 +8231,8 @@
   <dimension ref="A1:FI7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V5" sqref="V5"/>
+      <pane xSplit="2" topLeftCell="FE1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="FI1" sqref="FI1:FI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9232,13 +9291,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AX2"/>
+  <dimension ref="A1:AY2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AW2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG10" sqref="AG10"/>
+      <selection pane="bottomRight" activeCell="AY1" sqref="AY1:AY2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9293,7 +9352,7 @@
     <col min="50" max="50" width="27.28515625" style="81" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="14" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" s="14" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -9444,8 +9503,11 @@
       <c r="AX1" s="14" t="s">
         <v>282</v>
       </c>
+      <c r="AY1" s="14" t="s">
+        <v>160</v>
+      </c>
     </row>
-    <row r="2" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>161</v>
       </c>
@@ -9534,6 +9596,9 @@
       </c>
       <c r="AX2" s="16" t="s">
         <v>291</v>
+      </c>
+      <c r="AY2" s="81" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -9551,10 +9616,10 @@
   <dimension ref="A1:BD2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="BA2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q1" sqref="Q1"/>
+      <selection pane="bottomRight" activeCell="BD1" sqref="BD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9912,8 +9977,8 @@
   </sheetPr>
   <dimension ref="A1:AD26"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10146,10 +10211,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AK17"/>
+  <dimension ref="A1:AL17"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="AI1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AL1" sqref="AL1:AL2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10183,7 +10248,7 @@
     <col min="37" max="37" width="25.85546875" style="81" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="14" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" s="14" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -10295,8 +10360,11 @@
       <c r="AK1" s="14" t="s">
         <v>422</v>
       </c>
+      <c r="AL1" s="14" t="s">
+        <v>160</v>
+      </c>
     </row>
-    <row r="2" spans="1:37" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="61" t="s">
         <v>161</v>
       </c>
@@ -10408,8 +10476,11 @@
       <c r="AK2" s="22" t="s">
         <v>235</v>
       </c>
+      <c r="AL2" s="81" t="s">
+        <v>240</v>
+      </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="G16" s="31"/>
       <c r="I16" s="32"/>
     </row>
@@ -10432,8 +10503,8 @@
   <dimension ref="A1:CV2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H2" sqref="H2"/>
+      <pane xSplit="2" topLeftCell="AC1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AH1" sqref="AH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10755,7 +10826,7 @@
   <dimension ref="A1:CH2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10822,7 +10893,9 @@
       <c r="E1" s="13" t="s">
         <v>506</v>
       </c>
-      <c r="F1" s="14"/>
+      <c r="F1" s="14" t="s">
+        <v>160</v>
+      </c>
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
@@ -10920,6 +10993,9 @@
       <c r="E2" s="65" t="s">
         <v>507</v>
       </c>
+      <c r="F2" s="81" t="s">
+        <v>240</v>
+      </c>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
@@ -10958,8 +11034,8 @@
   </sheetPr>
   <dimension ref="A1:EA8"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1:W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11146,6 +11222,9 @@
       <c r="V1" s="11" t="s">
         <v>119</v>
       </c>
+      <c r="W1" s="14" t="s">
+        <v>160</v>
+      </c>
       <c r="CA1" s="15"/>
       <c r="CB1" s="15"/>
       <c r="CC1" s="15"/>
@@ -11265,6 +11344,9 @@
       </c>
       <c r="V2" s="61" t="s">
         <v>529</v>
+      </c>
+      <c r="W2" s="81" t="s">
+        <v>240</v>
       </c>
       <c r="EA2" s="59" t="s">
         <v>530</v>

--- a/DataSet/LoanIQ_DataSet/EU_Entity/EVG_PTYLIQ04_EU_BaselineNonAgentSyndication.xlsx
+++ b/DataSet/LoanIQ_DataSet/EU_Entity/EVG_PTYLIQ04_EU_BaselineNonAgentSyndication.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="1" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="14" activeTab="19" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV01_LoanDrawdown" sheetId="1" state="visible" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CRED09_AdminFee" sheetId="17" state="visible" r:id="rId17"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ORIG03_Customer1" sheetId="18" state="visible" r:id="rId18"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ORIG03_Customer" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correspondence" sheetId="20" state="visible" r:id="rId20"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -33,11 +34,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="m/d/yy"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="166" formatCode="00000"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -130,8 +132,14 @@
       <color indexed="9"/>
       <sz val="11"/>
     </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <sz val="10"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill/>
     </fill>
@@ -180,8 +188,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -252,12 +266,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -382,10 +423,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="166" fontId="3" fillId="9" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
@@ -742,8 +803,8 @@
     <col width="20.5703125" customWidth="1" style="19" min="41" max="42"/>
     <col width="40.85546875" customWidth="1" style="60" min="43" max="43"/>
     <col width="14.7109375" customWidth="1" style="60" min="44" max="44"/>
-    <col width="9.140625" customWidth="1" style="81" min="45" max="53"/>
-    <col width="9.140625" customWidth="1" style="81" min="54" max="16384"/>
+    <col width="9.140625" customWidth="1" style="81" min="45" max="69"/>
+    <col width="9.140625" customWidth="1" style="81" min="70" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customFormat="1" customHeight="1" s="87" thickBot="1">
@@ -1489,12 +1550,12 @@
       </c>
       <c r="C2" s="59" t="inlineStr">
         <is>
-          <t>CBANLD_21102020164530ZIB</t>
+          <t>CBANLD_26102020160544FUF</t>
         </is>
       </c>
       <c r="D2" s="59" t="inlineStr">
         <is>
-          <t>CBANLDNAFAC21102020165948</t>
+          <t>CBANLDNAFAC26102020162005</t>
         </is>
       </c>
       <c r="E2" s="59" t="inlineStr">
@@ -1991,7 +2052,7 @@
       </c>
       <c r="C2" s="59" t="inlineStr">
         <is>
-          <t>CBANLD_21102020164530ZIB</t>
+          <t>CBANLD_26102020160544FUF</t>
         </is>
       </c>
       <c r="D2" s="22" t="inlineStr">
@@ -2001,7 +2062,7 @@
       </c>
       <c r="E2" s="59" t="inlineStr">
         <is>
-          <t>CBANLDNAFAC21102020165948</t>
+          <t>CBANLDNAFAC26102020162005</t>
         </is>
       </c>
       <c r="F2" s="59" t="inlineStr">
@@ -2439,8 +2500,8 @@
   </sheetPr>
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -2556,7 +2617,7 @@
       </c>
       <c r="C2" s="59" t="inlineStr">
         <is>
-          <t>CBANLD_21102020164530ZIB</t>
+          <t>CBANLD_26102020160544FUF</t>
         </is>
       </c>
       <c r="D2" s="59" t="n">
@@ -2607,7 +2668,7 @@
       </c>
       <c r="O2" s="59" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>CBA Email with PDF Attachment</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -2636,7 +2697,7 @@
   <dimension ref="A1:BB2"/>
   <sheetViews>
     <sheetView zoomScale="101" zoomScaleNormal="101" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -2982,7 +3043,7 @@
       </c>
       <c r="C2" s="59" t="inlineStr">
         <is>
-          <t>CBANLD_21102020164530ZIB</t>
+          <t>CBANLD_26102020160544FUF</t>
         </is>
       </c>
       <c r="D2" s="59" t="inlineStr">
@@ -3005,7 +3066,7 @@
       </c>
       <c r="H2" s="59" t="inlineStr">
         <is>
-          <t>CBA120102020164018FHK</t>
+          <t>CBA126102020171027ODC</t>
         </is>
       </c>
       <c r="I2" s="59" t="inlineStr">
@@ -3025,22 +3086,22 @@
       </c>
       <c r="L2" s="59" t="inlineStr">
         <is>
-          <t>25-May-2020</t>
+          <t>02-Jul-2020</t>
         </is>
       </c>
       <c r="M2" s="59" t="inlineStr">
         <is>
-          <t>25-May-2020</t>
+          <t>02-Jul-2020</t>
         </is>
       </c>
       <c r="N2" s="59" t="inlineStr">
         <is>
-          <t>25-May-2021</t>
+          <t>02-Jul-2021</t>
         </is>
       </c>
       <c r="O2" s="16" t="inlineStr">
         <is>
-          <t>25-May-2021</t>
+          <t>02-Jul-2021</t>
         </is>
       </c>
       <c r="P2" s="16" t="inlineStr">
@@ -3468,7 +3529,7 @@
       </c>
       <c r="C2" s="59" t="inlineStr">
         <is>
-          <t>CBANLD_21102020164530ZIB</t>
+          <t>CBANLD_26102020160544FUF</t>
         </is>
       </c>
       <c r="D2" s="59" t="inlineStr">
@@ -3885,12 +3946,12 @@
       </c>
       <c r="C2" s="59" t="inlineStr">
         <is>
-          <t>CBANLD_21102020164530ZIB</t>
+          <t>CBANLD_26102020160544FUF</t>
         </is>
       </c>
       <c r="D2" s="59" t="inlineStr">
         <is>
-          <t>CBANLDNAFAC21102020165948</t>
+          <t>CBANLDNAFAC26102020162005</t>
         </is>
       </c>
       <c r="E2" s="59" t="inlineStr">
@@ -5824,8 +5885,8 @@
   </sheetPr>
   <dimension ref="A1:EO2"/>
   <sheetViews>
-    <sheetView topLeftCell="CH1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CL2" sqref="CL2"/>
+    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -7383,7 +7444,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P2" sqref="P2"/>
+      <selection pane="topRight" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -8359,17 +8420,17 @@
       </c>
       <c r="F2" s="59" t="inlineStr">
         <is>
-          <t>CBANLD_21102020164530ZIB</t>
+          <t>CBANLD_26102020160544FUF</t>
         </is>
       </c>
       <c r="G2" s="80" t="inlineStr">
         <is>
-          <t>CBA21102020164533IPW</t>
+          <t>CBA26102020160547XOM</t>
         </is>
       </c>
       <c r="H2" s="59" t="inlineStr">
         <is>
-          <t>CBANLDNAFAC21102020165948</t>
+          <t>CBANLDNAFAC26102020162005</t>
         </is>
       </c>
       <c r="I2" s="28" t="inlineStr">
@@ -8520,7 +8581,7 @@
       </c>
       <c r="AR2" s="60" t="inlineStr">
         <is>
-          <t>28-May-2020</t>
+          <t>02-Jul-2020</t>
         </is>
       </c>
       <c r="AS2" s="28" t="inlineStr">
@@ -8621,7 +8682,7 @@
       </c>
       <c r="BW2" s="60" t="inlineStr">
         <is>
-          <t>28-May-2020</t>
+          <t>02-Jul-2020</t>
         </is>
       </c>
       <c r="BY2" s="60" t="inlineStr">
@@ -8631,12 +8692,12 @@
       </c>
       <c r="BZ2" s="59" t="inlineStr">
         <is>
-          <t>28-May-2020</t>
+          <t>02-Jul-2020</t>
         </is>
       </c>
       <c r="CC2" s="59" t="inlineStr">
         <is>
-          <t>28-May-2020</t>
+          <t>02-Jul-2020</t>
         </is>
       </c>
       <c r="CE2" s="5" t="inlineStr">
@@ -8776,12 +8837,12 @@
       </c>
       <c r="EB2" s="60" t="inlineStr">
         <is>
-          <t>28-May-2020</t>
+          <t>02-Jul-2020</t>
         </is>
       </c>
       <c r="EC2" s="60" t="inlineStr">
         <is>
-          <t>28-May-2020</t>
+          <t>02-Jul-2020</t>
         </is>
       </c>
       <c r="ED2" s="58" t="inlineStr">
@@ -8841,18 +8902,18 @@
       </c>
       <c r="EO2" s="60" t="inlineStr">
         <is>
-          <t>28-May-2020</t>
+          <t>02-Jul-2020</t>
         </is>
       </c>
       <c r="EP2" s="60" t="inlineStr">
         <is>
-          <t>28-May-2020</t>
+          <t>02-Jul-2020</t>
         </is>
       </c>
       <c r="EQ2" s="17" t="n"/>
       <c r="ER2" s="60" t="inlineStr">
         <is>
-          <t>28-May-2020</t>
+          <t>02-Jul-2020</t>
         </is>
       </c>
       <c r="ES2" s="58" t="inlineStr">
@@ -8929,7 +8990,6 @@
     <row r="3">
       <c r="CH3" s="61" t="n"/>
     </row>
-    <row r="4"/>
     <row r="5">
       <c r="ED5" s="58" t="n"/>
       <c r="EL5" s="58" t="n"/>
@@ -8947,7 +9007,6 @@
       <c r="EY5" s="58" t="n"/>
       <c r="EZ5" s="58" t="n"/>
     </row>
-    <row r="6"/>
     <row r="7" ht="12.75" customHeight="1" s="81">
       <c r="DP7" s="59" t="n"/>
       <c r="DQ7" s="59" t="n"/>
@@ -8976,6 +9035,651 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
   <pageSetup orientation="portrait" paperSize="9" useFirstPageNumber="1" pageOrder="overThenDown" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:BP2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="AH1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AL1" sqref="AL1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="6.5703125" customWidth="1" style="101" min="1" max="1"/>
+    <col width="64.85546875" customWidth="1" style="101" min="2" max="2"/>
+    <col width="34.42578125" customWidth="1" style="96" min="3" max="4"/>
+    <col width="31.42578125" customWidth="1" style="101" min="5" max="5"/>
+    <col width="22.85546875" customWidth="1" style="96" min="6" max="6"/>
+    <col width="17.7109375" customWidth="1" style="96" min="7" max="8"/>
+    <col width="20" customWidth="1" style="96" min="9" max="9"/>
+    <col width="16.42578125" customWidth="1" style="101" min="10" max="10"/>
+    <col width="24" customWidth="1" style="96" min="11" max="11"/>
+    <col width="11.7109375" customWidth="1" style="101" min="12" max="12"/>
+    <col width="14.7109375" customWidth="1" style="101" min="13" max="14"/>
+    <col width="22.42578125" customWidth="1" style="101" min="15" max="15"/>
+    <col width="16.42578125" customWidth="1" style="101" min="16" max="16"/>
+    <col width="22.42578125" customWidth="1" style="101" min="17" max="17"/>
+    <col width="21.85546875" customWidth="1" style="101" min="18" max="19"/>
+    <col width="21.85546875" customWidth="1" style="96" min="20" max="20"/>
+    <col width="49.7109375" customWidth="1" style="96" min="21" max="21"/>
+    <col width="44.7109375" customWidth="1" style="96" min="22" max="22"/>
+    <col width="14" customWidth="1" style="96" min="23" max="23"/>
+    <col width="20" customWidth="1" style="96" min="24" max="24"/>
+    <col width="20.5703125" customWidth="1" style="96" min="25" max="25"/>
+    <col width="20.140625" customWidth="1" style="96" min="26" max="26"/>
+    <col width="45" customWidth="1" style="96" min="27" max="27"/>
+    <col width="22.28515625" customWidth="1" style="96" min="28" max="28"/>
+    <col width="23.28515625" customWidth="1" style="96" min="29" max="29"/>
+    <col width="26.5703125" customWidth="1" style="96" min="30" max="30"/>
+    <col width="16" customWidth="1" style="96" min="31" max="31"/>
+    <col width="17" customWidth="1" style="96" min="32" max="32"/>
+    <col width="55.7109375" customWidth="1" style="102" min="33" max="33"/>
+    <col width="16.7109375" customWidth="1" style="96" min="34" max="34"/>
+    <col width="47.28515625" customWidth="1" style="96" min="35" max="35"/>
+    <col width="47" customWidth="1" style="96" min="36" max="36"/>
+    <col width="22.5703125" customWidth="1" style="96" min="37" max="38"/>
+    <col width="25" customWidth="1" style="96" min="39" max="39"/>
+    <col width="13.42578125" customWidth="1" style="96" min="40" max="40"/>
+    <col width="16.140625" customWidth="1" style="96" min="41" max="41"/>
+    <col width="15.42578125" customWidth="1" style="96" min="42" max="42"/>
+    <col width="27.140625" customWidth="1" style="96" min="43" max="43"/>
+    <col width="9.140625" customWidth="1" style="96" min="44" max="58"/>
+    <col width="9.140625" customWidth="1" style="96" min="59" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="13.15" customHeight="1" s="81">
+      <c r="A1" s="90" t="inlineStr">
+        <is>
+          <t>rowid</t>
+        </is>
+      </c>
+      <c r="B1" s="90" t="inlineStr">
+        <is>
+          <t>Test_Case</t>
+        </is>
+      </c>
+      <c r="C1" s="91" t="inlineStr">
+        <is>
+          <t>Deal_Name</t>
+        </is>
+      </c>
+      <c r="D1" s="91" t="inlineStr">
+        <is>
+          <t>Notice_Method</t>
+        </is>
+      </c>
+      <c r="E1" s="90" t="inlineStr">
+        <is>
+          <t>Notice_Customer_LegalName</t>
+        </is>
+      </c>
+      <c r="F1" s="91" t="inlineStr">
+        <is>
+          <t>Facility_Name</t>
+        </is>
+      </c>
+      <c r="G1" s="91" t="inlineStr">
+        <is>
+          <t>Loan_Alias</t>
+        </is>
+      </c>
+      <c r="H1" s="90" t="inlineStr">
+        <is>
+          <t>Contact</t>
+        </is>
+      </c>
+      <c r="I1" s="90" t="inlineStr">
+        <is>
+          <t>NoticeGroup_UserID</t>
+        </is>
+      </c>
+      <c r="J1" s="90" t="inlineStr">
+        <is>
+          <t>Notice_Identifier</t>
+        </is>
+      </c>
+      <c r="K1" s="90" t="inlineStr">
+        <is>
+          <t>Correlation_ID</t>
+        </is>
+      </c>
+      <c r="L1" s="92" t="inlineStr">
+        <is>
+          <t>Thru_Date</t>
+        </is>
+      </c>
+      <c r="M1" s="90" t="inlineStr">
+        <is>
+          <t>From_Date</t>
+        </is>
+      </c>
+      <c r="N1" s="90" t="inlineStr">
+        <is>
+          <t>SubAdd_Days</t>
+        </is>
+      </c>
+      <c r="O1" s="93" t="inlineStr">
+        <is>
+          <t>Notice_Type</t>
+        </is>
+      </c>
+      <c r="P1" s="90" t="inlineStr">
+        <is>
+          <t>Search_By</t>
+        </is>
+      </c>
+      <c r="Q1" s="90" t="inlineStr">
+        <is>
+          <t>Notice_Method</t>
+        </is>
+      </c>
+      <c r="R1" s="90" t="inlineStr">
+        <is>
+          <t>BEO_StartDate</t>
+        </is>
+      </c>
+      <c r="S1" s="90" t="inlineStr">
+        <is>
+          <t>BEO_EndDate</t>
+        </is>
+      </c>
+      <c r="T1" s="90" t="inlineStr">
+        <is>
+          <t>Customer_IdentifiedBy</t>
+        </is>
+      </c>
+      <c r="U1" s="90" t="inlineStr">
+        <is>
+          <t>Zero_TempPath</t>
+        </is>
+      </c>
+      <c r="V1" s="90" t="inlineStr">
+        <is>
+          <t>InputFilePath</t>
+        </is>
+      </c>
+      <c r="W1" s="90" t="inlineStr">
+        <is>
+          <t>XML_File</t>
+        </is>
+      </c>
+      <c r="X1" s="90" t="inlineStr">
+        <is>
+          <t>Temp_File</t>
+        </is>
+      </c>
+      <c r="Y1" s="90" t="inlineStr">
+        <is>
+          <t>InputJson</t>
+        </is>
+      </c>
+      <c r="Z1" s="90" t="inlineStr">
+        <is>
+          <t>ExpectedJson</t>
+        </is>
+      </c>
+      <c r="AA1" s="90" t="inlineStr">
+        <is>
+          <t>OutputFilePath</t>
+        </is>
+      </c>
+      <c r="AB1" s="90" t="inlineStr">
+        <is>
+          <t>Field_Name</t>
+        </is>
+      </c>
+      <c r="AC1" s="90" t="inlineStr">
+        <is>
+          <t>OutputAPIResponse</t>
+        </is>
+      </c>
+      <c r="AD1" s="93" t="inlineStr">
+        <is>
+          <t>messageId</t>
+        </is>
+      </c>
+      <c r="AE1" s="93" t="inlineStr">
+        <is>
+          <t>CallBack_Status</t>
+        </is>
+      </c>
+      <c r="AF1" s="93" t="inlineStr">
+        <is>
+          <t>CallBack_Status2</t>
+        </is>
+      </c>
+      <c r="AG1" s="94" t="inlineStr">
+        <is>
+          <t>errorMessage</t>
+        </is>
+      </c>
+      <c r="AH1" s="93" t="inlineStr">
+        <is>
+          <t>errorMessage_2</t>
+        </is>
+      </c>
+      <c r="AI1" s="90" t="inlineStr">
+        <is>
+          <t>Notice_Status</t>
+        </is>
+      </c>
+      <c r="AJ1" s="90" t="inlineStr">
+        <is>
+          <t>WIP_ExceptionQueueDescription</t>
+        </is>
+      </c>
+      <c r="AK1" s="91" t="inlineStr">
+        <is>
+          <t>XML_NoticeType</t>
+        </is>
+      </c>
+      <c r="AL1" s="91" t="inlineStr">
+        <is>
+          <t>Loan_PricingOption</t>
+        </is>
+      </c>
+      <c r="AM1" s="90" t="inlineStr">
+        <is>
+          <t>Loan_BaseRate</t>
+        </is>
+      </c>
+      <c r="AN1" s="90" t="inlineStr">
+        <is>
+          <t>Loan_Spread</t>
+        </is>
+      </c>
+      <c r="AO1" s="90" t="inlineStr">
+        <is>
+          <t>Notice_AllInRate</t>
+        </is>
+      </c>
+      <c r="AP1" s="90" t="inlineStr">
+        <is>
+          <t>Notice_Amount</t>
+        </is>
+      </c>
+      <c r="AQ1" s="91" t="inlineStr">
+        <is>
+          <t>OngoingFee_Type</t>
+        </is>
+      </c>
+      <c r="AR1" s="90" t="inlineStr">
+        <is>
+          <t>Balance_Amount</t>
+        </is>
+      </c>
+      <c r="AS1" s="95" t="inlineStr">
+        <is>
+          <t>Rate_Basis</t>
+        </is>
+      </c>
+      <c r="AT1" s="90" t="inlineStr">
+        <is>
+          <t>Loan_EffectiveDate</t>
+        </is>
+      </c>
+      <c r="AU1" s="95" t="inlineStr">
+        <is>
+          <t>Loan_MaturityDate</t>
+        </is>
+      </c>
+      <c r="AV1" s="90" t="inlineStr">
+        <is>
+          <t>Loan_GlobalOriginal</t>
+        </is>
+      </c>
+      <c r="AW1" s="90" t="inlineStr">
+        <is>
+          <t>Loan_RateSetting_DueDate</t>
+        </is>
+      </c>
+      <c r="AX1" s="90" t="inlineStr">
+        <is>
+          <t>Loan_RepricingDate</t>
+        </is>
+      </c>
+      <c r="AY1" s="90" t="inlineStr">
+        <is>
+          <t>EffectiveDate_PrincipalPayment</t>
+        </is>
+      </c>
+      <c r="AZ1" s="90" t="inlineStr">
+        <is>
+          <t>Outstanding_PrincipalPayment</t>
+        </is>
+      </c>
+      <c r="BA1" s="90" t="inlineStr">
+        <is>
+          <t>EffectiveDate_InterestPayment</t>
+        </is>
+      </c>
+      <c r="BB1" s="90" t="inlineStr">
+        <is>
+          <t>ProjectedCycleDue_InterestPayment</t>
+        </is>
+      </c>
+      <c r="BC1" s="90" t="inlineStr">
+        <is>
+          <t>StartDate_Principal</t>
+        </is>
+      </c>
+      <c r="BD1" s="90" t="inlineStr">
+        <is>
+          <t>EndDate_Principal</t>
+        </is>
+      </c>
+      <c r="BE1" s="90" t="inlineStr">
+        <is>
+          <t>Days_Principal</t>
+        </is>
+      </c>
+      <c r="BF1" s="90" t="inlineStr">
+        <is>
+          <t>Principal_Amount</t>
+        </is>
+      </c>
+      <c r="BG1" s="90" t="inlineStr">
+        <is>
+          <t>StartDate_Interest</t>
+        </is>
+      </c>
+      <c r="BH1" s="90" t="inlineStr">
+        <is>
+          <t>EndDate_Interest</t>
+        </is>
+      </c>
+      <c r="BI1" s="90" t="inlineStr">
+        <is>
+          <t>Days_Interest</t>
+        </is>
+      </c>
+      <c r="BJ1" s="90" t="inlineStr">
+        <is>
+          <t>Interest_Amount</t>
+        </is>
+      </c>
+      <c r="BK1" s="90" t="inlineStr">
+        <is>
+          <t>Effective_Date</t>
+        </is>
+      </c>
+      <c r="BL1" s="90" t="inlineStr">
+        <is>
+          <t>UpfrontFee_Amount</t>
+        </is>
+      </c>
+      <c r="BM1" s="90" t="inlineStr">
+        <is>
+          <t>Branch_Description</t>
+        </is>
+      </c>
+      <c r="BN1" s="90" t="inlineStr">
+        <is>
+          <t>Currency</t>
+        </is>
+      </c>
+      <c r="BO1" s="90" t="inlineStr">
+        <is>
+          <t>Fee_Type</t>
+        </is>
+      </c>
+      <c r="BP1" s="90" t="inlineStr">
+        <is>
+          <t>Account_Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="81">
+      <c r="A2" s="96" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" s="97" t="inlineStr">
+        <is>
+          <t>API_COR_TC01_SENT_Rate Setting Notice</t>
+        </is>
+      </c>
+      <c r="C2" s="96" t="inlineStr">
+        <is>
+          <t>CBANLD_26102020160544FUF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CBA Email with PDF Attachment</t>
+        </is>
+      </c>
+      <c r="E2" s="96" t="inlineStr">
+        <is>
+          <t>LENDLEG0414</t>
+        </is>
+      </c>
+      <c r="F2" s="97" t="inlineStr">
+        <is>
+          <t>CBANLDNAFAC26102020162005</t>
+        </is>
+      </c>
+      <c r="G2" s="97" t="inlineStr">
+        <is>
+          <t>60000035</t>
+        </is>
+      </c>
+      <c r="H2" s="96" t="inlineStr">
+        <is>
+          <t>Lending NHB</t>
+        </is>
+      </c>
+      <c r="I2" s="97" t="inlineStr">
+        <is>
+          <t>LOANIQ01</t>
+        </is>
+      </c>
+      <c r="J2" s="96" t="inlineStr">
+        <is>
+          <t>O-EIQ1LE</t>
+        </is>
+      </c>
+      <c r="K2" s="96" t="inlineStr">
+        <is>
+          <t>LIQ-:3EDDHPC-:8EDDG3T-2</t>
+        </is>
+      </c>
+      <c r="L2" s="96" t="inlineStr">
+        <is>
+          <t>2022-08-05 00:00:00.000</t>
+        </is>
+      </c>
+      <c r="M2" s="96" t="inlineStr">
+        <is>
+          <t>2018-03-19 00:00:00.000</t>
+        </is>
+      </c>
+      <c r="N2" s="97" t="n">
+        <v>800</v>
+      </c>
+      <c r="O2" s="97" t="inlineStr">
+        <is>
+          <t>Upfront Fee From Borrower/Agent/Third Party Intent Notice</t>
+        </is>
+      </c>
+      <c r="P2" s="98" t="inlineStr">
+        <is>
+          <t>Notice Identifier</t>
+        </is>
+      </c>
+      <c r="Q2" s="98" t="inlineStr">
+        <is>
+          <t>CBA Email with PDF Attachment</t>
+        </is>
+      </c>
+      <c r="R2" s="96" t="inlineStr">
+        <is>
+          <t>2020-07-15 19:22:36.106</t>
+        </is>
+      </c>
+      <c r="S2" s="96" t="inlineStr">
+        <is>
+          <t>2020-07-15 19:22:36.106</t>
+        </is>
+      </c>
+      <c r="T2" s="98" t="inlineStr">
+        <is>
+          <t>Legal Name</t>
+        </is>
+      </c>
+      <c r="U2" s="98" t="inlineStr">
+        <is>
+          <t>C:\Users\u720589\AppData\Local\Temp\</t>
+        </is>
+      </c>
+      <c r="V2" s="98" t="inlineStr">
+        <is>
+          <t>\DataSet\Integration_DataSet\API\Input\Correspondence\</t>
+        </is>
+      </c>
+      <c r="W2" s="98" t="inlineStr">
+        <is>
+          <t>API_COR_TC02</t>
+        </is>
+      </c>
+      <c r="X2" s="98" t="inlineStr">
+        <is>
+          <t>TEMP_API_COR_TC02</t>
+        </is>
+      </c>
+      <c r="Y2" s="98" t="inlineStr">
+        <is>
+          <t>INPUT_API_COR_TC02</t>
+        </is>
+      </c>
+      <c r="Z2" s="98" t="inlineStr">
+        <is>
+          <t>EXP_API_COR_TC02</t>
+        </is>
+      </c>
+      <c r="AA2" s="98" t="inlineStr">
+        <is>
+          <t>\DataSet\Integration_DataSet\API\Output\Correspondence\</t>
+        </is>
+      </c>
+      <c r="AB2" s="98" t="inlineStr">
+        <is>
+          <t>correlationId</t>
+        </is>
+      </c>
+      <c r="AC2" s="98" t="inlineStr">
+        <is>
+          <t>API_COR_RESPONSE_TC2</t>
+        </is>
+      </c>
+      <c r="AD2" s="97" t="n"/>
+      <c r="AE2" s="98" t="inlineStr">
+        <is>
+          <t>SENT</t>
+        </is>
+      </c>
+      <c r="AF2" s="98" t="n"/>
+      <c r="AG2" s="99" t="n"/>
+      <c r="AH2" s="97" t="n"/>
+      <c r="AI2" s="98" t="inlineStr">
+        <is>
+          <t>Sent</t>
+        </is>
+      </c>
+      <c r="AJ2" s="97" t="n"/>
+      <c r="AK2" s="97" t="inlineStr">
+        <is>
+          <t>FEE INVOICE</t>
+        </is>
+      </c>
+      <c r="AL2" s="97" t="n"/>
+      <c r="AM2" s="96" t="inlineStr">
+        <is>
+          <t>10.000000%</t>
+        </is>
+      </c>
+      <c r="AN2" s="96" t="inlineStr">
+        <is>
+          <t>5.000000%</t>
+        </is>
+      </c>
+      <c r="AO2" s="96" t="inlineStr">
+        <is>
+          <t>15.000000%</t>
+        </is>
+      </c>
+      <c r="AP2" s="96" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AQ2" s="97" t="n"/>
+      <c r="AR2" s="97" t="n"/>
+      <c r="AS2" s="100" t="n"/>
+      <c r="AT2" s="96" t="inlineStr">
+        <is>
+          <t>27-May-2020</t>
+        </is>
+      </c>
+      <c r="AU2" s="96" t="inlineStr">
+        <is>
+          <t>28-Jun-2021</t>
+        </is>
+      </c>
+      <c r="AV2" s="96" t="inlineStr">
+        <is>
+          <t>10,000.00</t>
+        </is>
+      </c>
+      <c r="AW2" s="96" t="inlineStr">
+        <is>
+          <t>25-May-2020</t>
+        </is>
+      </c>
+      <c r="BK2" t="inlineStr">
+        <is>
+          <t>02-Jul-2020</t>
+        </is>
+      </c>
+      <c r="BL2" t="inlineStr">
+        <is>
+          <t>5,000.00</t>
+        </is>
+      </c>
+      <c r="BM2" t="inlineStr">
+        <is>
+          <t>Commonwealth Bank of Australia - Amsterdam</t>
+        </is>
+      </c>
+      <c r="BN2" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="BO2" t="inlineStr">
+        <is>
+          <t>Establishment/Extension Fee</t>
+        </is>
+      </c>
+      <c r="BP2" t="inlineStr">
+        <is>
+          <t>CBA AMSTERDAM</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
+  <pageSetup orientation="portrait" paperSize="9" pageOrder="overThenDown" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -9321,12 +10025,12 @@
       </c>
       <c r="F2" s="59" t="inlineStr">
         <is>
-          <t>CBANLD_21102020164530ZIB</t>
+          <t>CBANLD_26102020160544FUF</t>
         </is>
       </c>
       <c r="G2" s="59" t="inlineStr">
         <is>
-          <t>CBANLDNAFAC21102020165948</t>
+          <t>CBANLDNAFAC26102020162005</t>
         </is>
       </c>
       <c r="I2" s="16" t="inlineStr">
@@ -9356,22 +10060,22 @@
       </c>
       <c r="P2" s="59" t="inlineStr">
         <is>
-          <t>28-May-2020</t>
+          <t>02-Jul-2020</t>
         </is>
       </c>
       <c r="Q2" s="17" t="inlineStr">
         <is>
-          <t>28-May-2020</t>
+          <t>02-Jul-2020</t>
         </is>
       </c>
       <c r="R2" s="59" t="inlineStr">
         <is>
-          <t>28-May-2023</t>
+          <t>02-Jul-2023</t>
         </is>
       </c>
       <c r="S2" s="59" t="inlineStr">
         <is>
-          <t>27-Jun-2023</t>
+          <t>01-Aug-2023</t>
         </is>
       </c>
       <c r="T2" s="28" t="n"/>
@@ -9474,7 +10178,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="BA2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="BD1" sqref="BD1"/>
+      <selection pane="bottomRight" activeCell="BB8" sqref="BB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -9805,7 +10509,7 @@
       </c>
       <c r="C2" s="59" t="inlineStr">
         <is>
-          <t>CBANLDNAFAC21102020165948</t>
+          <t>CBANLDNAFAC26102020162005</t>
         </is>
       </c>
       <c r="D2" s="61" t="inlineStr">
@@ -10033,8 +10737,8 @@
   </sheetPr>
   <dimension ref="A1:AD26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC31" sqref="AC31"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -10229,7 +10933,7 @@
       </c>
       <c r="C2" s="59" t="inlineStr">
         <is>
-          <t>CBANLD_21102020164530ZIB</t>
+          <t>CBANLD_26102020160544FUF</t>
         </is>
       </c>
       <c r="D2" s="29" t="inlineStr">
@@ -10304,7 +11008,7 @@
       </c>
       <c r="R2" s="59" t="inlineStr">
         <is>
-          <t>28-May-2020</t>
+          <t>02-Jul-2020</t>
         </is>
       </c>
       <c r="S2" s="22" t="inlineStr">
@@ -10319,7 +11023,7 @@
       </c>
       <c r="V2" s="59" t="inlineStr">
         <is>
-          <t>28-May-2023</t>
+          <t>02-Jul-2023</t>
         </is>
       </c>
       <c r="W2" s="22" t="inlineStr">
@@ -10631,7 +11335,7 @@
       </c>
       <c r="D2" s="59" t="inlineStr">
         <is>
-          <t>CBANLD_21102020164530ZIB</t>
+          <t>CBANLD_26102020160544FUF</t>
         </is>
       </c>
       <c r="E2" s="61" t="inlineStr">
@@ -10641,7 +11345,7 @@
       </c>
       <c r="F2" s="59" t="inlineStr">
         <is>
-          <t>CBANLDNAFAC21102020165948</t>
+          <t>CBANLDNAFAC26102020162005</t>
         </is>
       </c>
       <c r="G2" s="61" t="inlineStr">
@@ -10696,7 +11400,7 @@
       </c>
       <c r="Q2" s="59" t="inlineStr">
         <is>
-          <t>27-Jun-2023</t>
+          <t>01-Aug-2023</t>
         </is>
       </c>
       <c r="R2" s="61" t="inlineStr">
@@ -11465,12 +12169,12 @@
       </c>
       <c r="C2" s="59" t="inlineStr">
         <is>
-          <t>CBANLD_21102020164530ZIB</t>
+          <t>CBANLD_26102020160544FUF</t>
         </is>
       </c>
       <c r="D2" s="59" t="inlineStr">
         <is>
-          <t>CBANLDNAFAC21102020165948</t>
+          <t>CBANLDNAFAC26102020162005</t>
         </is>
       </c>
       <c r="E2" s="65" t="inlineStr">
@@ -11825,17 +12529,17 @@
       </c>
       <c r="C2" s="59" t="inlineStr">
         <is>
-          <t>CBANLD_21102020164530ZIB</t>
+          <t>CBANLD_26102020160544FUF</t>
         </is>
       </c>
       <c r="D2" s="59" t="inlineStr">
         <is>
-          <t>CBANLDNAFAC21102020165948</t>
+          <t>CBANLDNAFAC26102020162005</t>
         </is>
       </c>
       <c r="E2" s="59" t="inlineStr">
         <is>
-          <t>CBA120102020164018FHK</t>
+          <t>CBA126102020171027ODC</t>
         </is>
       </c>
       <c r="F2" s="65" t="inlineStr">

--- a/DataSet/LoanIQ_DataSet/EU_Entity/EVG_PTYLIQ04_EU_BaselineNonAgentSyndication.xlsx
+++ b/DataSet/LoanIQ_DataSet/EU_Entity/EVG_PTYLIQ04_EU_BaselineNonAgentSyndication.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1170" yWindow="1170" windowWidth="27090" windowHeight="6990" tabRatio="600" firstSheet="2" activeTab="6" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="2" activeTab="6" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV29_PaymentFees" sheetId="1" state="visible" r:id="rId1"/>
@@ -887,8 +887,8 @@
     <col width="18.85546875" bestFit="1" customWidth="1" style="58" min="39" max="39"/>
     <col width="14.7109375" customWidth="1" style="58" min="40" max="40"/>
     <col width="6" bestFit="1" customWidth="1" style="58" min="41" max="41"/>
-    <col width="9.140625" customWidth="1" style="79" min="42" max="50"/>
-    <col width="9.140625" customWidth="1" style="79" min="51" max="16384"/>
+    <col width="9.140625" customWidth="1" style="79" min="42" max="52"/>
+    <col width="9.140625" customWidth="1" style="79" min="53" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="85">
@@ -5343,8 +5343,8 @@
     <col width="34.85546875" customWidth="1" style="58" min="100" max="100"/>
     <col width="9.140625" customWidth="1" style="58" min="101" max="101"/>
     <col width="15.85546875" customWidth="1" style="58" min="102" max="102"/>
-    <col width="9.140625" customWidth="1" style="79" min="103" max="111"/>
-    <col width="9.140625" customWidth="1" style="79" min="112" max="16384"/>
+    <col width="9.140625" customWidth="1" style="79" min="103" max="113"/>
+    <col width="9.140625" customWidth="1" style="79" min="114" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customFormat="1" customHeight="1" s="85">
@@ -7343,8 +7343,8 @@
     <col width="16.140625" customWidth="1" style="94" min="41" max="41"/>
     <col width="15.42578125" customWidth="1" style="94" min="42" max="42"/>
     <col width="27.140625" customWidth="1" style="94" min="43" max="43"/>
-    <col width="9.140625" customWidth="1" style="94" min="44" max="96"/>
-    <col width="9.140625" customWidth="1" style="94" min="97" max="16384"/>
+    <col width="9.140625" customWidth="1" style="94" min="44" max="98"/>
+    <col width="9.140625" customWidth="1" style="94" min="99" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.15" customHeight="1" s="79">
@@ -7995,8 +7995,8 @@
     <col width="40.85546875" customWidth="1" style="19" min="46" max="46"/>
     <col width="19.140625" bestFit="1" customWidth="1" style="58" min="47" max="47"/>
     <col width="6" bestFit="1" customWidth="1" style="58" min="48" max="48"/>
-    <col width="9.140625" customWidth="1" style="79" min="49" max="57"/>
-    <col width="9.140625" customWidth="1" style="79" min="58" max="16384"/>
+    <col width="9.140625" customWidth="1" style="79" min="49" max="59"/>
+    <col width="9.140625" customWidth="1" style="79" min="60" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customFormat="1" customHeight="1" s="85" thickBot="1">
@@ -8509,8 +8509,8 @@
     <col width="44.140625" bestFit="1" customWidth="1" style="120" min="12" max="12"/>
     <col width="41.7109375" bestFit="1" customWidth="1" style="120" min="13" max="13"/>
     <col width="34.7109375" bestFit="1" customWidth="1" style="120" min="14" max="14"/>
-    <col width="9.140625" customWidth="1" style="120" min="15" max="17"/>
-    <col width="9.140625" customWidth="1" style="120" min="18" max="16384"/>
+    <col width="9.140625" customWidth="1" style="120" min="15" max="19"/>
+    <col width="9.140625" customWidth="1" style="120" min="20" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8733,8 +8733,8 @@
     <col width="20.5703125" customWidth="1" style="19" min="41" max="42"/>
     <col width="40.85546875" customWidth="1" style="58" min="43" max="43"/>
     <col width="14.7109375" customWidth="1" style="58" min="44" max="44"/>
-    <col width="9.140625" customWidth="1" style="79" min="45" max="107"/>
-    <col width="9.140625" customWidth="1" style="79" min="108" max="16384"/>
+    <col width="9.140625" customWidth="1" style="79" min="45" max="109"/>
+    <col width="9.140625" customWidth="1" style="79" min="110" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customFormat="1" customHeight="1" s="85" thickBot="1">
@@ -11908,10 +11908,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH2"/>
+  <dimension ref="A1:BI2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AV9" sqref="AV9"/>
+    <sheetView tabSelected="1" topLeftCell="AV1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BB1" sqref="BB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -11965,12 +11965,13 @@
     <col width="17" customWidth="1" style="57" min="48" max="48"/>
     <col width="13.5703125" customWidth="1" style="57" min="49" max="52"/>
     <col width="8.140625" customWidth="1" style="57" min="53" max="53"/>
-    <col width="8.42578125" customWidth="1" style="57" min="54" max="54"/>
-    <col width="15.7109375" customWidth="1" style="57" min="55" max="55"/>
-    <col width="24.140625" customWidth="1" style="57" min="56" max="56"/>
-    <col width="35.28515625" customWidth="1" style="57" min="57" max="57"/>
-    <col width="24.140625" customWidth="1" style="57" min="58" max="58"/>
-    <col width="34.28515625" customWidth="1" style="57" min="59" max="59"/>
+    <col width="9.140625" bestFit="1" customWidth="1" style="57" min="54" max="54"/>
+    <col width="8.42578125" customWidth="1" style="57" min="55" max="55"/>
+    <col width="15.7109375" customWidth="1" style="57" min="56" max="56"/>
+    <col width="24.140625" customWidth="1" style="57" min="57" max="57"/>
+    <col width="35.28515625" customWidth="1" style="57" min="58" max="58"/>
+    <col width="24.140625" customWidth="1" style="57" min="59" max="59"/>
+    <col width="34.28515625" customWidth="1" style="57" min="60" max="60"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customFormat="1" customHeight="1" s="46" thickBot="1">
@@ -12241,35 +12242,40 @@
       </c>
       <c r="BB1" s="49" t="inlineStr">
         <is>
+          <t>Spread5</t>
+        </is>
+      </c>
+      <c r="BC1" s="49" t="inlineStr">
+        <is>
           <t>Spread4</t>
         </is>
       </c>
-      <c r="BC1" s="49" t="inlineStr">
+      <c r="BD1" s="49" t="inlineStr">
         <is>
           <t>PRI_Value</t>
         </is>
       </c>
-      <c r="BD1" s="49" t="inlineStr">
+      <c r="BE1" s="49" t="inlineStr">
         <is>
           <t>WIPTransaction_Type</t>
         </is>
       </c>
-      <c r="BE1" s="49" t="inlineStr">
+      <c r="BF1" s="49" t="inlineStr">
         <is>
           <t>Transaction_Status_AwaitingApproval</t>
         </is>
       </c>
-      <c r="BF1" s="49" t="inlineStr">
+      <c r="BG1" s="49" t="inlineStr">
         <is>
           <t>FacilityTransaction_Type</t>
         </is>
       </c>
-      <c r="BG1" s="49" t="inlineStr">
+      <c r="BH1" s="49" t="inlineStr">
         <is>
           <t>Transaction_Status_AwaitingRelease</t>
         </is>
       </c>
-      <c r="BH1" s="14" t="inlineStr">
+      <c r="BI1" s="14" t="inlineStr">
         <is>
           <t>Entity</t>
         </is>
@@ -12308,12 +12314,12 @@
       </c>
       <c r="G2" s="57" t="inlineStr">
         <is>
-          <t>TRSC43130</t>
+          <t>TRSC43436</t>
         </is>
       </c>
       <c r="H2" s="57" t="inlineStr">
         <is>
-          <t>03-Nov-2020</t>
+          <t>04-Nov-2020</t>
         </is>
       </c>
       <c r="I2" s="57" t="inlineStr">
@@ -12399,34 +12405,37 @@
         <v>0.75</v>
       </c>
       <c r="BB2" s="57" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BC2" s="57" t="n">
         <v>1.25</v>
       </c>
-      <c r="BC2" s="57" t="inlineStr">
+      <c r="BD2" s="57" t="inlineStr">
         <is>
           <t>DDA</t>
         </is>
       </c>
-      <c r="BD2" s="57" t="inlineStr">
+      <c r="BE2" s="57" t="inlineStr">
         <is>
           <t>Facilities</t>
         </is>
       </c>
-      <c r="BE2" s="57" t="inlineStr">
+      <c r="BF2" s="57" t="inlineStr">
         <is>
           <t>Awaiting Approval</t>
         </is>
       </c>
-      <c r="BF2" s="57" t="inlineStr">
+      <c r="BG2" s="57" t="inlineStr">
         <is>
           <t>Pricing Change Transaction</t>
         </is>
       </c>
-      <c r="BG2" s="57" t="inlineStr">
+      <c r="BH2" s="57" t="inlineStr">
         <is>
           <t>Awaiting Release</t>
         </is>
       </c>
-      <c r="BH2" t="inlineStr">
+      <c r="BI2" t="inlineStr">
         <is>
           <t>EU</t>
         </is>
